--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc107_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1414,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1449,28 +1461,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1507,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1749,10 +1761,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1796,28 +1808,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1842,28 +1854,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2050,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2085,28 +2097,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2143,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2385,10 +2397,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2432,28 +2444,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2478,28 +2490,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2761,10 +2773,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2808,28 +2820,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2854,28 +2866,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3149,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3196,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3242,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3455,10 +3467,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3502,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3548,28 +3560,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3802,10 +3814,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3849,28 +3861,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3895,28 +3907,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4120,10 +4132,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4167,28 +4179,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4213,28 +4225,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4409,10 +4421,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4456,28 +4468,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4502,28 +4514,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4727,10 +4739,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4774,28 +4786,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4820,28 +4832,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K169" s="2" t="s">
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5276,10 +5288,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5323,28 +5335,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5369,28 +5381,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5507,10 +5519,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K186" s="2" t="s">
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
